--- a/FORMS/students.xlsx
+++ b/FORMS/students.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H2"/>
+  <dimension ref="A1:P2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -436,85 +436,163 @@
     <row r="1">
       <c r="A1" s="1" t="inlineStr">
         <is>
-          <t>Name</t>
+          <t>First Name</t>
         </is>
       </c>
       <c r="B1" s="1" t="inlineStr">
         <is>
-          <t>Dept</t>
+          <t>Last Name</t>
         </is>
       </c>
       <c r="C1" s="1" t="inlineStr">
         <is>
+          <t>Title</t>
+        </is>
+      </c>
+      <c r="D1" s="1" t="inlineStr">
+        <is>
+          <t>Guardian's Name</t>
+        </is>
+      </c>
+      <c r="E1" s="1" t="inlineStr">
+        <is>
+          <t>Age</t>
+        </is>
+      </c>
+      <c r="F1" s="1" t="inlineStr">
+        <is>
+          <t>Date of Birth</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
           <t>Address</t>
         </is>
       </c>
-      <c r="D1" s="1" t="inlineStr">
-        <is>
-          <t>DOB</t>
-        </is>
-      </c>
-      <c r="E1" s="1" t="inlineStr">
-        <is>
-          <t>Guardian Name</t>
-        </is>
-      </c>
-      <c r="F1" s="1" t="inlineStr">
+      <c r="H1" s="1" t="inlineStr">
+        <is>
+          <t>Mobile No.</t>
+        </is>
+      </c>
+      <c r="I1" s="1" t="inlineStr">
+        <is>
+          <t>Email id</t>
+        </is>
+      </c>
+      <c r="J1" s="1" t="inlineStr">
         <is>
           <t>Gender</t>
         </is>
       </c>
-      <c r="G1" s="1" t="inlineStr">
-        <is>
-          <t>Email</t>
-        </is>
-      </c>
-      <c r="H1" s="1" t="inlineStr">
-        <is>
-          <t>Phone</t>
+      <c r="K1" s="1" t="inlineStr">
+        <is>
+          <t>Religion</t>
+        </is>
+      </c>
+      <c r="L1" s="1" t="inlineStr">
+        <is>
+          <t>Caste</t>
+        </is>
+      </c>
+      <c r="M1" s="1" t="inlineStr">
+        <is>
+          <t>Department</t>
+        </is>
+      </c>
+      <c r="N1" s="1" t="inlineStr">
+        <is>
+          <t>Year</t>
+        </is>
+      </c>
+      <c r="O1" s="1" t="inlineStr">
+        <is>
+          <t>Semester</t>
+        </is>
+      </c>
+      <c r="P1" s="1" t="inlineStr">
+        <is>
+          <t>Terms Accepted</t>
         </is>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>Sayantan Chatterjee</t>
+          <t>Sayantan</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
         <is>
+          <t>Chatterjee</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>Mr.</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>s</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>18</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>12/5/23</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>s</t>
+        </is>
+      </c>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t>s</t>
+        </is>
+      </c>
+      <c r="I2" t="inlineStr">
+        <is>
+          <t>s</t>
+        </is>
+      </c>
+      <c r="J2" t="inlineStr">
+        <is>
+          <t>Male</t>
+        </is>
+      </c>
+      <c r="K2" t="inlineStr">
+        <is>
+          <t>Hinduism</t>
+        </is>
+      </c>
+      <c r="L2" t="inlineStr">
+        <is>
+          <t>General</t>
+        </is>
+      </c>
+      <c r="M2" t="inlineStr">
+        <is>
           <t>CSE</t>
         </is>
       </c>
-      <c r="C2" t="inlineStr">
-        <is>
-          <t>Andul</t>
-        </is>
-      </c>
-      <c r="D2" t="inlineStr">
-        <is>
-          <t>10/11/2003</t>
-        </is>
-      </c>
-      <c r="E2" t="inlineStr">
-        <is>
-          <t>s</t>
-        </is>
-      </c>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t>Male</t>
-        </is>
-      </c>
-      <c r="G2" t="inlineStr">
-        <is>
-          <t>sas</t>
-        </is>
-      </c>
-      <c r="H2" t="inlineStr">
-        <is>
-          <t>234324</t>
-        </is>
+      <c r="N2" t="inlineStr">
+        <is>
+          <t>1st</t>
+        </is>
+      </c>
+      <c r="O2" t="inlineStr">
+        <is>
+          <t>1st</t>
+        </is>
+      </c>
+      <c r="P2" t="n">
+        <v>1</v>
       </c>
     </row>
   </sheetData>
